--- a/InputData/elec/NSDoNCC/Norm St Dev of New Cap Costs.xlsx
+++ b/InputData/elec/NSDoNCC/Norm St Dev of New Cap Costs.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\elec\NSDoNCC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/pa/elec/nsdoncc/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB45B973-43C0-474E-85FE-C93D1852604F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="11025"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="15600" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -18,10 +19,19 @@
     <sheet name="PV" sheetId="11" r:id="rId4"/>
     <sheet name="NSDoNCC" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -330,7 +340,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -928,7 +938,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -1050,6 +1060,9 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1068,18 +1081,16 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Body: normal cell" xfId="4"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="5"/>
-    <cellStyle name="Footnotes: top row" xfId="6"/>
-    <cellStyle name="Header: bottom row" xfId="3"/>
+    <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="5" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="6" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Header: bottom row" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Table title" xfId="2"/>
+    <cellStyle name="Table title" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1361,29 +1372,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="78.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="78.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="C1" s="66">
+        <v>44307</v>
+      </c>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1392,149 +1406,149 @@
       </c>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>45</v>
       </c>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" s="3">
         <v>2008</v>
       </c>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>46</v>
       </c>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>44</v>
       </c>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" s="3">
         <v>2018</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B18" s="3">
         <v>2014</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="24" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="24" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="24" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="24" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>63</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
-    <hyperlink ref="B14" r:id="rId2"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B14" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
@@ -1542,21 +1556,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>34</v>
       </c>
@@ -1567,7 +1581,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>60</v>
       </c>
@@ -1578,7 +1592,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>60</v>
       </c>
@@ -1593,7 +1607,7 @@
         <v>0.11767526995465394</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>60</v>
       </c>
@@ -1604,7 +1618,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>60</v>
       </c>
@@ -1615,7 +1629,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>60</v>
       </c>
@@ -1626,7 +1640,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>60</v>
       </c>
@@ -1637,7 +1651,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>60</v>
       </c>
@@ -1648,7 +1662,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>60</v>
       </c>
@@ -1659,7 +1673,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>60</v>
       </c>
@@ -1670,7 +1684,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>3</v>
       </c>
@@ -1681,7 +1695,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>3</v>
       </c>
@@ -1692,7 +1706,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>3</v>
       </c>
@@ -1703,7 +1717,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>3</v>
       </c>
@@ -1714,7 +1728,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>3</v>
       </c>
@@ -1725,7 +1739,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>3</v>
       </c>
@@ -1736,7 +1750,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>3</v>
       </c>
@@ -1747,7 +1761,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>3</v>
       </c>
@@ -1758,7 +1772,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>3</v>
       </c>
@@ -1769,7 +1783,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>9</v>
       </c>
@@ -1780,7 +1794,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>9</v>
       </c>
@@ -1791,7 +1805,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>9</v>
       </c>
@@ -1802,7 +1816,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>9</v>
       </c>
@@ -1813,7 +1827,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>9</v>
       </c>
@@ -1824,7 +1838,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>9</v>
       </c>
@@ -1835,7 +1849,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>9</v>
       </c>
@@ -1846,7 +1860,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>5</v>
       </c>
@@ -1857,7 +1871,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>5</v>
       </c>
@@ -1868,7 +1882,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>5</v>
       </c>
@@ -1879,7 +1893,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>5</v>
       </c>
@@ -1890,7 +1904,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>5</v>
       </c>
@@ -1901,7 +1915,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>5</v>
       </c>
@@ -1912,7 +1926,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>5</v>
       </c>
@@ -1923,7 +1937,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>12</v>
       </c>
@@ -1934,7 +1948,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>12</v>
       </c>
@@ -1945,7 +1959,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>12</v>
       </c>
@@ -1956,7 +1970,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>12</v>
       </c>
@@ -1967,7 +1981,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
         <v>7</v>
       </c>
@@ -1978,7 +1992,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>7</v>
       </c>
@@ -1989,7 +2003,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>7</v>
       </c>
@@ -2000,7 +2014,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>7</v>
       </c>
@@ -2011,7 +2025,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
         <v>7</v>
       </c>
@@ -2022,7 +2036,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
         <v>7</v>
       </c>
@@ -2033,7 +2047,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
         <v>7</v>
       </c>
@@ -2044,7 +2058,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
         <v>7</v>
       </c>
@@ -2055,7 +2069,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>7</v>
       </c>
@@ -2066,7 +2080,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
         <v>6</v>
       </c>
@@ -2077,7 +2091,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
         <v>10</v>
       </c>
@@ -2094,30 +2108,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" customWidth="1"/>
+    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" customWidth="1"/>
+    <col min="12" max="12" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="9" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>17</v>
       </c>
@@ -2156,7 +2170,7 @@
       </c>
       <c r="P1" s="10"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="21"/>
       <c r="B2" s="6">
         <v>3683</v>
@@ -2190,7 +2204,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="21"/>
       <c r="B3" s="6">
         <v>3683</v>
@@ -2224,7 +2238,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="21"/>
       <c r="B4" s="6">
         <v>2542</v>
@@ -2258,7 +2272,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="21"/>
       <c r="B5" s="6">
         <v>3045</v>
@@ -2292,7 +2306,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="21"/>
       <c r="B6" s="6">
         <v>4104</v>
@@ -2324,7 +2338,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="21"/>
       <c r="B7" s="6">
         <v>3060</v>
@@ -2354,7 +2368,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="21"/>
       <c r="B8" s="6">
         <v>3104</v>
@@ -2384,7 +2398,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="21"/>
       <c r="B9" s="6">
         <v>3514</v>
@@ -2414,7 +2428,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="21"/>
       <c r="B10" s="13"/>
       <c r="C10" s="6">
@@ -2440,7 +2454,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="21"/>
       <c r="B11" s="13"/>
       <c r="C11" s="6">
@@ -2464,7 +2478,7 @@
       </c>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="21"/>
       <c r="B12" s="13"/>
       <c r="C12" s="6">
@@ -2488,7 +2502,7 @@
       </c>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="21"/>
       <c r="B13" s="13"/>
       <c r="C13" s="6">
@@ -2512,7 +2526,7 @@
       </c>
       <c r="L13" s="15"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="21"/>
       <c r="B14" s="13"/>
       <c r="C14" s="6">
@@ -2534,7 +2548,7 @@
       </c>
       <c r="L14" s="15"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="21"/>
       <c r="B15" s="13"/>
       <c r="C15" s="6">
@@ -2556,7 +2570,7 @@
       </c>
       <c r="L15" s="15"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="21"/>
       <c r="B16" s="13"/>
       <c r="C16" s="6">
@@ -2576,7 +2590,7 @@
       </c>
       <c r="L16" s="15"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="21"/>
       <c r="B17" s="13"/>
       <c r="C17" s="6">
@@ -2596,7 +2610,7 @@
       </c>
       <c r="L17" s="15"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="21"/>
       <c r="B18" s="13"/>
       <c r="C18" s="6">
@@ -2612,7 +2626,7 @@
       <c r="K18" s="13"/>
       <c r="L18" s="15"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="21"/>
       <c r="B19" s="13"/>
       <c r="C19" s="6">
@@ -2628,7 +2642,7 @@
       <c r="K19" s="13"/>
       <c r="L19" s="15"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="21"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -2642,7 +2656,7 @@
       <c r="K20" s="13"/>
       <c r="L20" s="15"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="21"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -2656,7 +2670,7 @@
       <c r="K21" s="13"/>
       <c r="L21" s="15"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="21"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -2670,7 +2684,7 @@
       <c r="K22" s="13"/>
       <c r="L22" s="15"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="21"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -2684,7 +2698,7 @@
       <c r="K23" s="13"/>
       <c r="L23" s="15"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="21"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -2698,7 +2712,7 @@
       <c r="K24" s="13"/>
       <c r="L24" s="15"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="21"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -2712,7 +2726,7 @@
       <c r="K25" s="13"/>
       <c r="L25" s="15"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="22" t="s">
         <v>15</v>
       </c>
@@ -2760,7 +2774,7 @@
         <v>146.68162802478025</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
         <v>14</v>
       </c>
@@ -2814,26 +2828,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" customWidth="1"/>
+    <col min="11" max="11" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
         <v>64</v>
       </c>
@@ -2842,7 +2856,7 @@
       <c r="D1" s="29"/>
       <c r="E1" s="30"/>
     </row>
-    <row r="2" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>65</v>
       </c>
@@ -2851,31 +2865,31 @@
       <c r="D2" s="31"/>
       <c r="E2" s="30"/>
     </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="61" t="s">
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="61" t="s">
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="63"/>
-    </row>
-    <row r="4" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="60"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="64"/>
+    </row>
+    <row r="4" spans="1:13" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="61"/>
       <c r="B4" s="32" t="s">
         <v>70</v>
       </c>
@@ -2913,7 +2927,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
         <v>76</v>
       </c>
@@ -2954,7 +2968,7 @@
         <v>74.900000000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="44">
         <v>2010</v>
       </c>
@@ -2995,7 +3009,7 @@
         <v>175.07</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="49">
         <v>2011</v>
       </c>
@@ -3036,7 +3050,7 @@
         <v>427.78999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="44">
         <v>2012</v>
       </c>
@@ -3077,7 +3091,7 @@
         <v>914.79399999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="44">
         <v>2013</v>
       </c>
@@ -3118,7 +3132,7 @@
         <v>1343.7889999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="44">
         <v>2014</v>
       </c>
@@ -3159,7 +3173,7 @@
         <v>3166.3595000000005</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="49">
         <v>2015</v>
       </c>
@@ -3200,7 +3214,7 @@
         <v>2869.6819999999993</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="49">
         <v>2016</v>
       </c>
@@ -3241,7 +3255,7 @@
         <v>7468.993999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="49">
         <v>2017</v>
       </c>
@@ -3282,24 +3296,24 @@
         <v>2303.190000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="64" t="s">
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="64"/>
-      <c r="M14" s="64"/>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="65"/>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>78</v>
       </c>
@@ -3308,7 +3322,7 @@
         <v>2.0043665964367037</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>79</v>
       </c>
@@ -3317,7 +3331,7 @@
         <v>2.1449119700000003</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>80</v>
       </c>
@@ -3326,7 +3340,7 @@
         <v>0.16731592090868649</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>81</v>
       </c>
@@ -3334,7 +3348,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>82</v>
       </c>
@@ -3356,7 +3370,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FF215381"/>
   </sheetPr>
@@ -3366,22 +3380,22 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="32.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="59" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>60</v>
       </c>
@@ -3390,7 +3404,7 @@
         <v>0.11767526995465394</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
@@ -3399,7 +3413,7 @@
         <v>0.11586187975255104</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -3408,7 +3422,7 @@
         <v>0.22951832790705273</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
@@ -3417,7 +3431,7 @@
         <v>0.6323412969779878</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>59</v>
       </c>
@@ -3426,7 +3440,7 @@
         <v>0.17425352832467156</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
@@ -3435,7 +3449,7 @@
         <v>8.3475708089595577E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -3444,7 +3458,7 @@
         <v>0.11955441996991129</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
@@ -3453,7 +3467,7 @@
         <v>0.2969718751850845</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
@@ -3462,7 +3476,7 @@
         <v>0.1962978819110564</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
@@ -3471,7 +3485,7 @@
         <v>0.11586187975255104</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
@@ -3480,7 +3494,7 @@
         <v>0.37017095779576853</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
         <v>57</v>
       </c>
@@ -3489,7 +3503,7 @@
         <v>0.11767526995465394</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="27" t="s">
         <v>58</v>
       </c>
@@ -3498,7 +3512,7 @@
         <v>0.17425352832467156</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
         <v>89</v>
       </c>
@@ -3507,7 +3521,7 @@
         <v>0.11586187975255104</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="s">
         <v>87</v>
       </c>
@@ -3516,7 +3530,7 @@
         <v>0.11586187975255104</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="27" t="s">
         <v>88</v>
       </c>

--- a/InputData/elec/NSDoNCC/Norm St Dev of New Cap Costs.xlsx
+++ b/InputData/elec/NSDoNCC/Norm St Dev of New Cap Costs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/pa/elec/nsdoncc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/elec/nsdoncc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB45B973-43C0-474E-85FE-C93D1852604F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC5A96E-C625-9145-989C-DDE86EF16D8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="15600" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
